--- a/2023SEIS-Proposals/2023-SEIS-Proposals.xlsx
+++ b/2023SEIS-Proposals/2023-SEIS-Proposals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rosenberg\Work\USU\Research\ColoradoRiver\RCode\ColoradoRiverCollaborate\2023SEIS-Proposals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9A80E8-83AD-4CF0-ADEC-0D3B1E9FE838}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1601E3F9-D52D-4013-B3AB-8778DADACE4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6230" xr2:uid="{F538D32F-F9FA-408E-AB2F-811AEA3D3CB9}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t xml:space="preserve">Powell </t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Proposal</t>
-  </si>
-  <si>
-    <t>Status Quo - 2019 Drought Contigency Plan(s)</t>
   </si>
   <si>
     <t>Lake Mead Elevation-Volume-Area Relationship</t>
@@ -148,6 +145,12 @@
   </si>
   <si>
     <t>Comparion of Lake Powell and Lake Mead protection elevations, protection volumes, and volumes above minimum power pools</t>
+  </si>
+  <si>
+    <t>Status Quo - 2019 Drought Contigency Plans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requested Citation: Colorado River Collaborate (2023). "Comparison of 2023 Supplemental Environmental Impact Statement (SEIS) Proposals". </t>
   </si>
 </sst>
 </file>
@@ -358,6 +361,7 @@
     <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -379,7 +383,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -14962,10 +14965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADCCAAB-1B22-4789-8EDA-A0B15F44BB8A}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14982,13 +14985,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="38" t="s">
-        <v>38</v>
+      <c r="A1" s="31" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -14998,213 +15001,218 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="34"/>
+      <c r="H9" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="33"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="35"/>
+      <c r="B10" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="25">
+        <v>3525</v>
+      </c>
+      <c r="C11" s="25">
+        <v>1020</v>
+      </c>
+      <c r="D11" s="26">
+        <f>VLOOKUP(B11,'Powell-Elevation-Storage'!$E$14:$J$32,6)</f>
+        <v>5.2784839999999997</v>
+      </c>
+      <c r="E11" s="26">
+        <f>VLOOKUP(C11,'Mead-Elevation-Storage'!$A$5:$B$676,2)/1000000</f>
+        <v>5.664593</v>
+      </c>
+      <c r="F11" s="30">
+        <f>D11-D$15</f>
+        <v>1.5246870000000001</v>
+      </c>
+      <c r="G11" s="30">
+        <f>E11-E$15</f>
+        <v>3.4414229999999999</v>
+      </c>
+      <c r="H11" s="27" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="32"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="34"/>
-      <c r="B7" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="25">
-        <v>3525</v>
-      </c>
-      <c r="C8" s="25">
-        <v>1020</v>
-      </c>
-      <c r="D8" s="26">
-        <f>VLOOKUP(B8,'Powell-Elevation-Storage'!$E$14:$J$32,6)</f>
-        <v>5.2784839999999997</v>
-      </c>
-      <c r="E8" s="26">
-        <f>VLOOKUP(C8,'Mead-Elevation-Storage'!$A$5:$B$676,2)/1000000</f>
-        <v>5.664593</v>
-      </c>
-      <c r="F8" s="30">
-        <f>D8-D$12</f>
-        <v>1.5246870000000001</v>
-      </c>
-      <c r="G8" s="30">
-        <f>E8-E$12</f>
-        <v>3.4414229999999999</v>
-      </c>
-      <c r="H8" s="27" t="s">
+      <c r="I11" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="28" t="s">
+    </row>
+    <row r="12" spans="1:10" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B12" s="25">
         <v>3500</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C12" s="25">
         <v>1000</v>
       </c>
-      <c r="D9" s="26">
-        <f>VLOOKUP(B9,'Powell-Elevation-Storage'!$E$14:$J$32,6)</f>
+      <c r="D12" s="26">
+        <f>VLOOKUP(B12,'Powell-Elevation-Storage'!$E$14:$J$32,6)</f>
         <v>4.2284699999999997</v>
       </c>
-      <c r="E9" s="26">
-        <f>VLOOKUP(C9,'Mead-Elevation-Storage'!$A$5:$B$676,2)/1000000</f>
+      <c r="E12" s="26">
+        <f>VLOOKUP(C12,'Mead-Elevation-Storage'!$A$5:$B$676,2)/1000000</f>
         <v>4.475301</v>
       </c>
-      <c r="F9" s="30">
-        <f t="shared" ref="F9:F10" si="0">D9-D$12</f>
+      <c r="F12" s="30">
+        <f t="shared" ref="F12:F13" si="0">D12-D$15</f>
         <v>0.47467300000000012</v>
       </c>
-      <c r="G9" s="30">
-        <f t="shared" ref="G9:G10" si="1">E9-E$12</f>
+      <c r="G12" s="30">
+        <f t="shared" ref="G12:G13" si="1">E12-E$15</f>
         <v>2.2521309999999999</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H12" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="J12" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="28" t="s">
+    </row>
+    <row r="13" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B13" s="25">
         <v>3500</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C13" s="25">
         <v>1000</v>
       </c>
-      <c r="D10" s="26">
-        <f>VLOOKUP(B10,'Powell-Elevation-Storage'!$E$14:$J$32,6)</f>
+      <c r="D13" s="26">
+        <f>VLOOKUP(B13,'Powell-Elevation-Storage'!$E$14:$J$32,6)</f>
         <v>4.2284699999999997</v>
       </c>
-      <c r="E10" s="26">
-        <f>VLOOKUP(C10,'Mead-Elevation-Storage'!$A$5:$B$676,2)/1000000</f>
+      <c r="E13" s="26">
+        <f>VLOOKUP(C13,'Mead-Elevation-Storage'!$A$5:$B$676,2)/1000000</f>
         <v>4.475301</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F13" s="30">
         <f t="shared" si="0"/>
         <v>0.47467300000000012</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G13" s="30">
         <f t="shared" si="1"/>
         <v>2.2521309999999999</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H13" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="19">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="19">
         <v>3490</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C15" s="19">
         <v>955</v>
       </c>
-      <c r="D12" s="20">
-        <f>VLOOKUP(B12,'Powell-Elevation-Storage'!$E$14:$J$32,6)</f>
+      <c r="D15" s="20">
+        <f>VLOOKUP(B15,'Powell-Elevation-Storage'!$E$14:$J$32,6)</f>
         <v>3.7537969999999996</v>
       </c>
-      <c r="E12" s="20">
-        <f>VLOOKUP(C12,'Mead-Elevation-Storage'!$A$5:$B$676,2)/1000000</f>
+      <c r="E15" s="20">
+        <f>VLOOKUP(C15,'Mead-Elevation-Storage'!$A$5:$B$676,2)/1000000</f>
         <v>2.2231700000000001</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="18"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H9" r:id="rId1" xr:uid="{125174CB-2A3E-4F9C-B6A7-A0549A161487}"/>
-    <hyperlink ref="H10" r:id="rId2" xr:uid="{633BFD2E-765F-4280-A758-14190AFA13D8}"/>
-    <hyperlink ref="H8" r:id="rId3" xr:uid="{BBFB1797-8D72-4F06-9FA3-74F60BAA91AD}"/>
+    <hyperlink ref="H12" r:id="rId1" xr:uid="{125174CB-2A3E-4F9C-B6A7-A0549A161487}"/>
+    <hyperlink ref="H13" r:id="rId2" xr:uid="{633BFD2E-765F-4280-A758-14190AFA13D8}"/>
+    <hyperlink ref="H11" r:id="rId3" xr:uid="{BBFB1797-8D72-4F06-9FA3-74F60BAA91AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15237,12 +15245,12 @@
   <sheetData>
     <row r="1" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -15252,19 +15260,19 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>14</v>
       </c>
       <c r="G4" s="7"/>
     </row>
@@ -30164,53 +30172,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="35"/>
+      <c r="A1" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="36"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="37"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="2" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="G2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">

--- a/2023SEIS-Proposals/2023-SEIS-Proposals.xlsx
+++ b/2023SEIS-Proposals/2023-SEIS-Proposals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rosenberg\Work\USU\Research\ColoradoRiver\RCode\ColoradoRiverCollaborate\2023SEIS-Proposals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1601E3F9-D52D-4013-B3AB-8778DADACE4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491CBA47-7C9F-4C4F-9FEC-23FB917DB9E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6230" xr2:uid="{F538D32F-F9FA-408E-AB2F-811AEA3D3CB9}"/>
   </bookViews>
@@ -14967,7 +14967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADCCAAB-1B22-4789-8EDA-A0B15F44BB8A}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>

--- a/2023SEIS-Proposals/2023-SEIS-Proposals.xlsx
+++ b/2023SEIS-Proposals/2023-SEIS-Proposals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rosenberg\Work\USU\Research\ColoradoRiver\RCode\ColoradoRiverCollaborate\2023SEIS-Proposals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B2D3A5-ED11-4200-9EFA-87EA573EA2B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3752E9F0-A77A-4456-98CB-1114E619B693}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6230" activeTab="1" xr2:uid="{F538D32F-F9FA-408E-AB2F-811AEA3D3CB9}"/>
   </bookViews>
@@ -439,6 +439,15 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -459,15 +468,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -15053,8 +15053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADCCAAB-1B22-4789-8EDA-A0B15F44BB8A}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15096,31 +15096,31 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32" t="s">
+      <c r="C9" s="37"/>
+      <c r="D9" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="34" t="s">
+      <c r="E9" s="37"/>
+      <c r="F9" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="34"/>
+      <c r="G9" s="39"/>
       <c r="H9" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="33" t="s">
+      <c r="I9" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="33"/>
+      <c r="J9" s="38"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="35"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="22" t="s">
         <v>0</v>
       </c>
@@ -15347,7 +15347,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="32" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="16">
@@ -15360,25 +15360,25 @@
       <c r="F4">
         <v>1040</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="34">
         <f>VLOOKUP(F4,'Mead-Elevation-Storage'!$A$5:$B$676,2)/1000000</f>
         <v>6.977665</v>
       </c>
-      <c r="H4" s="43">
+      <c r="H4" s="36">
         <f>VLOOKUP($F4,MeadEvap!$B$2:$H$673,7)/1000000</f>
         <v>0.37858699999945</v>
       </c>
-      <c r="I4" s="43">
+      <c r="I4" s="36">
         <f>VLOOKUP($F4,MeadEvap!$B$2:$H$673,6)/1000000</f>
         <v>0.44053759999935999</v>
       </c>
-      <c r="J4" s="40">
+      <c r="J4" s="33">
         <f>AVERAGE(H4:I4)</f>
         <v>0.40956229999940497</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="32" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="16">
@@ -15387,25 +15387,25 @@
       <c r="F5">
         <v>1120</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="34">
         <f>VLOOKUP(F5,'Mead-Elevation-Storage'!$A$5:$B$676,2)/1000000</f>
         <v>13.601435345500001</v>
       </c>
-      <c r="H5" s="43">
+      <c r="H5" s="36">
         <f>VLOOKUP($F5,MeadEvap!$B$2:$H$673,7)/1000000</f>
         <v>0.5349370224451</v>
       </c>
-      <c r="I5" s="43">
+      <c r="I5" s="36">
         <f>VLOOKUP($F5,MeadEvap!$B$2:$H$673,6)/1000000</f>
         <v>0.62247217157248003</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="33">
         <f>AVERAGE(H5:I5)</f>
         <v>0.57870459700879007</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="32" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="16">
@@ -15413,7 +15413,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="32" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="16">
@@ -15421,7 +15421,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="32" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="16">
@@ -15429,7 +15429,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="32" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="16">
@@ -15441,7 +15441,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="32" t="s">
         <v>48</v>
       </c>
       <c r="B11" s="16">
@@ -15501,10 +15501,10 @@
       <c r="F1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="35" t="s">
         <v>54</v>
       </c>
       <c r="I1" t="s">
@@ -49958,22 +49958,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="37"/>
+      <c r="F1" s="42"/>
       <c r="G1" s="12"/>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
     </row>
     <row r="2" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
